--- a/database/industries/darou/desobhan/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/desobhan/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\desobhan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0FAF07-09C4-47A8-A1DC-DC0386AB1C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D61B6B8-448F-4F46-8F65-EA8B8B00940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="70">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -687,16 +702,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I146"/>
+  <dimension ref="B1:N146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -705,8 +720,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -717,8 +737,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -729,8 +754,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -739,8 +769,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -751,8 +786,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -763,8 +803,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -773,8 +818,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -795,8 +845,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -805,10 +870,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -817,224 +887,364 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>24003</v>
+      </c>
+      <c r="F11" s="11">
+        <v>24046</v>
+      </c>
+      <c r="G11" s="11">
+        <v>23932</v>
+      </c>
+      <c r="H11" s="11">
+        <v>23866</v>
+      </c>
+      <c r="I11" s="11">
+        <v>36995</v>
+      </c>
+      <c r="J11" s="11">
         <v>38340</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>34913</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>37300</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>28762</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>880055</v>
+      </c>
+      <c r="F13" s="11">
+        <v>871001</v>
+      </c>
+      <c r="G13" s="11">
+        <v>925673</v>
+      </c>
+      <c r="H13" s="11">
+        <v>848844</v>
+      </c>
+      <c r="I13" s="11">
+        <v>837244</v>
+      </c>
+      <c r="J13" s="11">
         <v>879533</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>852410</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>272</v>
+      </c>
+      <c r="F14" s="13">
+        <v>200</v>
+      </c>
+      <c r="G14" s="13">
+        <v>179</v>
+      </c>
+      <c r="H14" s="13">
+        <v>144</v>
+      </c>
+      <c r="I14" s="13">
+        <v>362</v>
+      </c>
+      <c r="J14" s="13">
         <v>386</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>355</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>59</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>2861</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2497</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2112</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2404</v>
+      </c>
+      <c r="I17" s="11">
+        <v>2161</v>
+      </c>
+      <c r="J17" s="11">
         <v>2351</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
         <v>2136</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>1388</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>2826</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
         <v>862861</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>732682</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>1162364</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
+        <v>907191</v>
+      </c>
+      <c r="F19" s="15">
+        <v>897744</v>
+      </c>
+      <c r="G19" s="15">
+        <v>951896</v>
+      </c>
+      <c r="H19" s="15">
+        <v>875258</v>
+      </c>
+      <c r="I19" s="15">
+        <v>876762</v>
+      </c>
+      <c r="J19" s="15">
         <v>920610</v>
       </c>
-      <c r="F19" s="15">
+      <c r="K19" s="15">
         <v>852410</v>
       </c>
-      <c r="G19" s="15">
+      <c r="L19" s="15">
         <v>900265</v>
       </c>
-      <c r="H19" s="15">
+      <c r="M19" s="15">
         <v>771429</v>
       </c>
-      <c r="I19" s="15">
+      <c r="N19" s="15">
         <v>1194010</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1043,13 +1253,18 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
@@ -1058,46 +1273,76 @@
       <c r="F21" s="11">
         <v>0</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G21" s="11">
+        <v>1200</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
+        <v>15813</v>
+      </c>
+      <c r="F22" s="13">
+        <v>5300</v>
+      </c>
+      <c r="G22" s="13">
+        <v>3180</v>
+      </c>
+      <c r="H22" s="13">
+        <v>6000</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="13">
         <v>2700</v>
       </c>
-      <c r="F22" s="13">
+      <c r="K22" s="13">
         <v>41000</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
@@ -1106,137 +1351,227 @@
       <c r="F23" s="11">
         <v>0</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>13</v>
+      <c r="G23" s="11">
+        <v>0</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
+        <v>87</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>210</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
         <v>50</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
-      <c r="H26" s="13">
+      <c r="K26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
         <v>180</v>
       </c>
-      <c r="I26" s="13">
+      <c r="N26" s="13">
         <v>625</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="11">
+        <v>18</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="11">
         <v>1000</v>
       </c>
-      <c r="H27" s="11">
+      <c r="M27" s="11">
         <v>25999</v>
       </c>
-      <c r="I27" s="11">
+      <c r="N27" s="11">
         <v>15350</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
+        <v>15900</v>
+      </c>
+      <c r="F28" s="17">
+        <v>5300</v>
+      </c>
+      <c r="G28" s="17">
+        <v>4380</v>
+      </c>
+      <c r="H28" s="17">
+        <v>6210</v>
+      </c>
+      <c r="I28" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="17">
         <v>2750</v>
       </c>
-      <c r="F28" s="17">
+      <c r="K28" s="17">
         <v>41000</v>
       </c>
-      <c r="G28" s="17">
+      <c r="L28" s="17">
         <v>1000</v>
       </c>
-      <c r="H28" s="17">
+      <c r="M28" s="17">
         <v>26179</v>
       </c>
-      <c r="I28" s="17">
+      <c r="N28" s="17">
         <v>15975</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1245,32 +1580,52 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
         <v>0</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>13</v>
+      <c r="F30" s="11">
+        <v>0</v>
       </c>
       <c r="G30" s="11">
         <v>0</v>
       </c>
-      <c r="H30" s="11">
-        <v>0</v>
+      <c r="H30" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I30" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -1289,76 +1644,136 @@
       <c r="I31" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="17">
+        <v>0</v>
+      </c>
+      <c r="K31" s="17">
+        <v>0</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="17">
+        <v>0</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>13</v>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>13</v>
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="17">
+        <v>0</v>
       </c>
       <c r="G33" s="17">
         <v>0</v>
       </c>
-      <c r="H33" s="17">
-        <v>0</v>
+      <c r="H33" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I33" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>0</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
+        <v>923091</v>
+      </c>
+      <c r="F34" s="15">
+        <v>903044</v>
+      </c>
+      <c r="G34" s="15">
+        <v>956276</v>
+      </c>
+      <c r="H34" s="15">
+        <v>881468</v>
+      </c>
+      <c r="I34" s="15">
+        <v>877762</v>
+      </c>
+      <c r="J34" s="15">
         <v>923360</v>
       </c>
-      <c r="F34" s="15">
+      <c r="K34" s="15">
         <v>893410</v>
       </c>
-      <c r="G34" s="15">
+      <c r="L34" s="15">
         <v>901265</v>
       </c>
-      <c r="H34" s="15">
+      <c r="M34" s="15">
         <v>797608</v>
       </c>
-      <c r="I34" s="15">
+      <c r="N34" s="15">
         <v>1209985</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1367,8 +1782,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1377,8 +1797,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1387,10 +1812,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1409,8 +1839,23 @@
       <c r="I38" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1419,10 +1864,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1431,224 +1881,364 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
+        <v>60334</v>
+      </c>
+      <c r="F41" s="11">
+        <v>76419</v>
+      </c>
+      <c r="G41" s="11">
+        <v>50106</v>
+      </c>
+      <c r="H41" s="11">
+        <v>70108</v>
+      </c>
+      <c r="I41" s="11">
+        <v>136585</v>
+      </c>
+      <c r="J41" s="11">
         <v>145086</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="11">
+      <c r="K41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="11">
         <v>136456</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>226121</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>193485</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D42" s="13"/>
-      <c r="E42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>13</v>
+      <c r="E42" s="13">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>1305778</v>
+      </c>
+      <c r="F43" s="11">
+        <v>1569483</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1425547</v>
+      </c>
+      <c r="H43" s="11">
+        <v>1349092</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1431681</v>
+      </c>
+      <c r="J43" s="11">
         <v>1782599</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>1238543</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
+        <v>49891</v>
+      </c>
+      <c r="F44" s="13">
+        <v>32383</v>
+      </c>
+      <c r="G44" s="13">
+        <v>6545</v>
+      </c>
+      <c r="H44" s="13">
+        <v>23899</v>
+      </c>
+      <c r="I44" s="13">
+        <v>112850</v>
+      </c>
+      <c r="J44" s="13">
         <v>3870</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="13">
+      <c r="K44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="13">
         <v>21530</v>
       </c>
-      <c r="H44" s="13">
+      <c r="M44" s="13">
         <v>-118</v>
       </c>
-      <c r="I44" s="13">
+      <c r="N44" s="13">
         <v>22090</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>98251</v>
+      </c>
+      <c r="F47" s="11">
+        <v>110589</v>
+      </c>
+      <c r="G47" s="11">
+        <v>128636</v>
+      </c>
+      <c r="H47" s="11">
+        <v>179393</v>
+      </c>
+      <c r="I47" s="11">
+        <v>121522</v>
+      </c>
+      <c r="J47" s="11">
         <v>129735</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="11">
+      <c r="K47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="11">
         <v>126791</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>204643</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>257282</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="13">
+        <v>18</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="13">
         <v>1585481</v>
       </c>
-      <c r="H48" s="13">
+      <c r="M48" s="13">
         <v>2531866</v>
       </c>
-      <c r="I48" s="13">
+      <c r="N48" s="13">
         <v>3273719</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15">
+        <v>1514254</v>
+      </c>
+      <c r="F49" s="15">
+        <v>1788874</v>
+      </c>
+      <c r="G49" s="15">
+        <v>1610834</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1622492</v>
+      </c>
+      <c r="I49" s="15">
+        <v>1802638</v>
+      </c>
+      <c r="J49" s="15">
         <v>2061290</v>
       </c>
-      <c r="F49" s="15">
+      <c r="K49" s="15">
         <v>1238543</v>
       </c>
-      <c r="G49" s="15">
+      <c r="L49" s="15">
         <v>1870258</v>
       </c>
-      <c r="H49" s="15">
+      <c r="M49" s="15">
         <v>2962512</v>
       </c>
-      <c r="I49" s="15">
+      <c r="N49" s="15">
         <v>3746576</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1657,13 +2247,18 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
@@ -1672,46 +2267,76 @@
       <c r="F51" s="11">
         <v>0</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G51" s="11">
+        <v>3817</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
+        <v>49022</v>
+      </c>
+      <c r="F52" s="13">
+        <v>6363</v>
+      </c>
+      <c r="G52" s="13">
+        <v>18009</v>
+      </c>
+      <c r="H52" s="13">
+        <v>14543</v>
+      </c>
+      <c r="I52" s="13">
+        <v>1407</v>
+      </c>
+      <c r="J52" s="13">
         <v>8587</v>
       </c>
-      <c r="F52" s="13">
+      <c r="K52" s="13">
         <v>96588</v>
       </c>
-      <c r="G52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
@@ -1720,137 +2345,227 @@
       <c r="F53" s="11">
         <v>0</v>
       </c>
-      <c r="G53" s="11" t="s">
-        <v>13</v>
+      <c r="G53" s="11">
+        <v>0</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>2693</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>6085</v>
+      </c>
+      <c r="I56" s="13">
+        <v>0</v>
+      </c>
+      <c r="J56" s="13">
         <v>2056</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="13">
-        <v>0</v>
-      </c>
-      <c r="H56" s="13">
+      <c r="K56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="13">
+        <v>0</v>
+      </c>
+      <c r="M56" s="13">
         <v>9249</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>30096</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="11">
+        <v>18</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="11">
         <v>1250</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>56098</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>26753</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17">
+        <v>51715</v>
+      </c>
+      <c r="F58" s="17">
+        <v>6363</v>
+      </c>
+      <c r="G58" s="17">
+        <v>21826</v>
+      </c>
+      <c r="H58" s="17">
+        <v>20628</v>
+      </c>
+      <c r="I58" s="17">
+        <v>1407</v>
+      </c>
+      <c r="J58" s="17">
         <v>10643</v>
       </c>
-      <c r="F58" s="17">
+      <c r="K58" s="17">
         <v>96588</v>
       </c>
-      <c r="G58" s="17">
+      <c r="L58" s="17">
         <v>1250</v>
       </c>
-      <c r="H58" s="17">
+      <c r="M58" s="17">
         <v>65347</v>
       </c>
-      <c r="I58" s="17">
+      <c r="N58" s="17">
         <v>56849</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -1859,124 +2574,204 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>6261</v>
+      </c>
+      <c r="F60" s="11">
+        <v>-6917</v>
+      </c>
+      <c r="G60" s="11">
+        <v>15899</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="11">
+        <v>579</v>
+      </c>
+      <c r="J60" s="11">
         <v>9112</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0</v>
-      </c>
-      <c r="H60" s="11">
+      <c r="K60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="11">
+        <v>0</v>
+      </c>
+      <c r="M60" s="11">
         <v>16764</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>-16764</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17">
+        <v>6261</v>
+      </c>
+      <c r="F61" s="17">
+        <v>-6917</v>
+      </c>
+      <c r="G61" s="17">
+        <v>15899</v>
+      </c>
+      <c r="H61" s="17">
+        <v>0</v>
+      </c>
+      <c r="I61" s="17">
+        <v>579</v>
+      </c>
+      <c r="J61" s="17">
         <v>9112</v>
       </c>
-      <c r="F61" s="17">
-        <v>0</v>
-      </c>
-      <c r="G61" s="17">
-        <v>0</v>
-      </c>
-      <c r="H61" s="17">
+      <c r="K61" s="17">
+        <v>0</v>
+      </c>
+      <c r="L61" s="17">
+        <v>0</v>
+      </c>
+      <c r="M61" s="17">
         <v>16764</v>
       </c>
-      <c r="I61" s="17">
+      <c r="N61" s="17">
         <v>-16764</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D62" s="15"/>
-      <c r="E62" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>13</v>
+      <c r="E62" s="15">
+        <v>0</v>
+      </c>
+      <c r="F62" s="15">
+        <v>0</v>
+      </c>
+      <c r="G62" s="15">
+        <v>0</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D63" s="17"/>
-      <c r="E63" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>13</v>
+      <c r="E63" s="17">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17">
+        <v>0</v>
       </c>
       <c r="G63" s="17">
         <v>0</v>
       </c>
-      <c r="H63" s="17">
-        <v>0</v>
+      <c r="H63" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I63" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="17">
+        <v>0</v>
+      </c>
+      <c r="M63" s="17">
+        <v>0</v>
+      </c>
+      <c r="N63" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
+        <v>1572230</v>
+      </c>
+      <c r="F64" s="15">
+        <v>1788320</v>
+      </c>
+      <c r="G64" s="15">
+        <v>1648559</v>
+      </c>
+      <c r="H64" s="15">
+        <v>1643120</v>
+      </c>
+      <c r="I64" s="15">
+        <v>1804624</v>
+      </c>
+      <c r="J64" s="15">
         <v>2081045</v>
       </c>
-      <c r="F64" s="15">
+      <c r="K64" s="15">
         <v>1335131</v>
       </c>
-      <c r="G64" s="15">
+      <c r="L64" s="15">
         <v>1871508</v>
       </c>
-      <c r="H64" s="15">
+      <c r="M64" s="15">
         <v>3044623</v>
       </c>
-      <c r="I64" s="15">
+      <c r="N64" s="15">
         <v>3786661</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1985,8 +2780,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1995,8 +2795,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2005,10 +2810,15 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -2027,8 +2837,23 @@
       <c r="I68" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2037,10 +2862,15 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -2049,202 +2879,327 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
+        <v>2513602</v>
+      </c>
+      <c r="F71" s="11">
+        <v>3178034</v>
+      </c>
+      <c r="G71" s="11">
+        <v>2093682</v>
+      </c>
+      <c r="H71" s="11">
+        <v>2937568</v>
+      </c>
+      <c r="I71" s="11">
+        <v>3691985</v>
+      </c>
+      <c r="J71" s="11">
         <v>3784293</v>
       </c>
-      <c r="F71" s="11">
+      <c r="K71" s="11">
         <v>3846022</v>
       </c>
-      <c r="G71" s="11">
+      <c r="L71" s="11">
         <v>3908458</v>
       </c>
-      <c r="H71" s="11">
+      <c r="M71" s="11">
         <v>6062225</v>
       </c>
-      <c r="I71" s="11">
+      <c r="N71" s="11">
         <v>6727105</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>1483746</v>
+      </c>
+      <c r="F73" s="11">
+        <v>1801930</v>
+      </c>
+      <c r="G73" s="11">
+        <v>1540011</v>
+      </c>
+      <c r="H73" s="11">
+        <v>1589329</v>
+      </c>
+      <c r="I73" s="11">
+        <v>1709993</v>
+      </c>
+      <c r="J73" s="11">
         <v>2026756</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>1452990</v>
       </c>
-      <c r="G73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
+        <v>183422794</v>
+      </c>
+      <c r="F74" s="13">
+        <v>161915000</v>
+      </c>
+      <c r="G74" s="13">
+        <v>36564246</v>
+      </c>
+      <c r="H74" s="13">
+        <v>165965278</v>
+      </c>
+      <c r="I74" s="13">
+        <v>311740331</v>
+      </c>
+      <c r="J74" s="13">
         <v>10025907</v>
       </c>
-      <c r="F74" s="13">
+      <c r="K74" s="13">
         <v>-47905063</v>
       </c>
-      <c r="G74" s="13">
+      <c r="L74" s="13">
         <v>60647887</v>
       </c>
-      <c r="H74" s="13">
+      <c r="M74" s="13">
         <v>-2000000</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>380862069</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
+        <v>34341489</v>
+      </c>
+      <c r="F77" s="11">
+        <v>44288747</v>
+      </c>
+      <c r="G77" s="11">
+        <v>60907197</v>
+      </c>
+      <c r="H77" s="11">
+        <v>74622712</v>
+      </c>
+      <c r="I77" s="11">
+        <v>56234151</v>
+      </c>
+      <c r="J77" s="11">
         <v>55182901</v>
       </c>
-      <c r="F77" s="11">
+      <c r="K77" s="11">
         <v>73543644</v>
       </c>
-      <c r="G77" s="11">
+      <c r="L77" s="11">
         <v>59359082</v>
       </c>
-      <c r="H77" s="11">
+      <c r="M77" s="11">
         <v>147437320</v>
       </c>
-      <c r="I77" s="11">
+      <c r="N77" s="11">
         <v>91041047</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="13">
+        <v>18</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="13">
         <v>1837470</v>
       </c>
-      <c r="H78" s="13">
+      <c r="M78" s="13">
         <v>3455614</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>2816432</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2253,178 +3208,288 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G80" s="11">
+        <v>3180833</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
+        <v>3100108</v>
+      </c>
+      <c r="F81" s="13">
+        <v>1200566</v>
+      </c>
+      <c r="G81" s="13">
+        <v>5663208</v>
+      </c>
+      <c r="H81" s="13">
+        <v>2423833</v>
+      </c>
+      <c r="I81" s="13">
+        <v>1407000</v>
+      </c>
+      <c r="J81" s="13">
         <v>3180370</v>
       </c>
-      <c r="F81" s="13">
+      <c r="K81" s="13">
         <v>2355805</v>
       </c>
-      <c r="G81" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
+        <v>30954023</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="13">
+        <v>28976190</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="13">
         <v>41120000</v>
       </c>
-      <c r="F85" s="13">
+      <c r="K85" s="13">
         <v>53700000</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="13">
+      <c r="L85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="13">
         <v>51383333</v>
       </c>
-      <c r="I85" s="13">
+      <c r="N85" s="13">
         <v>48153600</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="11">
+        <v>18</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="11">
         <v>1250000</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>2157698</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>1742866</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -2433,32 +3498,52 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2467,8 +3552,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2477,8 +3567,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2487,10 +3582,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2509,8 +3609,23 @@
       <c r="I92" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2519,10 +3634,15 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -2531,224 +3651,364 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
+        <v>-27205</v>
+      </c>
+      <c r="F95" s="11">
+        <v>-32075</v>
+      </c>
+      <c r="G95" s="11">
+        <v>-39956</v>
+      </c>
+      <c r="H95" s="11">
+        <v>-42324</v>
+      </c>
+      <c r="I95" s="11">
+        <v>-78740</v>
+      </c>
+      <c r="J95" s="11">
         <v>-79667</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>-82251</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>-87557</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>-70358</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>-85053</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D96" s="13"/>
-      <c r="E96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>13</v>
+      <c r="E96" s="13">
+        <v>0</v>
+      </c>
+      <c r="F96" s="13">
+        <v>0</v>
+      </c>
+      <c r="G96" s="13">
+        <v>0</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N96" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>-534282</v>
+      </c>
+      <c r="F97" s="11">
+        <v>-582363</v>
+      </c>
+      <c r="G97" s="11">
+        <v>-642393</v>
+      </c>
+      <c r="H97" s="11">
+        <v>-632652</v>
+      </c>
+      <c r="I97" s="11">
+        <v>-913625</v>
+      </c>
+      <c r="J97" s="11">
         <v>-892068</v>
       </c>
-      <c r="F97" s="11">
+      <c r="K97" s="11">
         <v>-890240</v>
       </c>
-      <c r="G97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
+        <v>-18175</v>
+      </c>
+      <c r="F98" s="13">
+        <v>-12274</v>
+      </c>
+      <c r="G98" s="13">
+        <v>-18168</v>
+      </c>
+      <c r="H98" s="13">
+        <v>-12435</v>
+      </c>
+      <c r="I98" s="13">
+        <v>-31122</v>
+      </c>
+      <c r="J98" s="13">
         <v>-11468</v>
       </c>
-      <c r="F98" s="13">
+      <c r="K98" s="13">
         <v>4656</v>
       </c>
-      <c r="G98" s="13">
+      <c r="L98" s="13">
         <v>-15284</v>
       </c>
-      <c r="H98" s="13">
+      <c r="M98" s="13">
         <v>4172</v>
       </c>
-      <c r="I98" s="13">
+      <c r="N98" s="13">
         <v>-31377</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
+        <v>-65274</v>
+      </c>
+      <c r="F101" s="11">
+        <v>-59665</v>
+      </c>
+      <c r="G101" s="11">
+        <v>-73112</v>
+      </c>
+      <c r="H101" s="11">
+        <v>-81552</v>
+      </c>
+      <c r="I101" s="11">
+        <v>-93035</v>
+      </c>
+      <c r="J101" s="11">
         <v>-104325</v>
       </c>
-      <c r="F101" s="11">
+      <c r="K101" s="11">
         <v>-148660</v>
       </c>
-      <c r="G101" s="11">
+      <c r="L101" s="11">
         <v>-106329</v>
       </c>
-      <c r="H101" s="11">
+      <c r="M101" s="11">
         <v>-101930</v>
       </c>
-      <c r="I101" s="11">
+      <c r="N101" s="11">
         <v>-186544</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="13">
+        <v>18</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="13">
         <v>-911951</v>
       </c>
-      <c r="H102" s="13">
+      <c r="M102" s="13">
         <v>-1010370</v>
       </c>
-      <c r="I102" s="13">
+      <c r="N102" s="13">
         <v>-1608052</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
+        <v>-644936</v>
+      </c>
+      <c r="F103" s="15">
+        <v>-686377</v>
+      </c>
+      <c r="G103" s="15">
+        <v>-773629</v>
+      </c>
+      <c r="H103" s="15">
+        <v>-768963</v>
+      </c>
+      <c r="I103" s="15">
+        <v>-1116522</v>
+      </c>
+      <c r="J103" s="15">
         <v>-1087528</v>
       </c>
-      <c r="F103" s="15">
+      <c r="K103" s="15">
         <v>-1116495</v>
       </c>
-      <c r="G103" s="15">
+      <c r="L103" s="15">
         <v>-1121121</v>
       </c>
-      <c r="H103" s="15">
+      <c r="M103" s="15">
         <v>-1178486</v>
       </c>
-      <c r="I103" s="15">
+      <c r="N103" s="15">
         <v>-1911026</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -2757,13 +4017,18 @@
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
@@ -2772,46 +4037,76 @@
       <c r="F105" s="11">
         <v>0</v>
       </c>
-      <c r="G105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G105" s="11">
+        <v>-1203</v>
+      </c>
+      <c r="H105" s="11">
+        <v>0</v>
+      </c>
+      <c r="I105" s="11">
+        <v>0</v>
+      </c>
+      <c r="J105" s="11">
+        <v>0</v>
+      </c>
+      <c r="K105" s="11">
+        <v>0</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
+        <v>-15222</v>
+      </c>
+      <c r="F106" s="13">
+        <v>1742</v>
+      </c>
+      <c r="G106" s="13">
+        <v>-6606</v>
+      </c>
+      <c r="H106" s="13">
+        <v>-4892</v>
+      </c>
+      <c r="I106" s="13">
+        <v>-1245</v>
+      </c>
+      <c r="J106" s="13">
         <v>-2853</v>
       </c>
-      <c r="F106" s="13">
+      <c r="K106" s="13">
         <v>-63865</v>
       </c>
-      <c r="G106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
@@ -2820,137 +4115,227 @@
       <c r="F107" s="11">
         <v>0</v>
       </c>
-      <c r="G107" s="11" t="s">
-        <v>13</v>
+      <c r="G107" s="11">
+        <v>0</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I107" s="11">
+        <v>0</v>
+      </c>
+      <c r="J107" s="11">
+        <v>0</v>
+      </c>
+      <c r="K107" s="11">
+        <v>0</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N108" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13">
+        <v>-1400</v>
+      </c>
+      <c r="F110" s="13">
+        <v>-543</v>
+      </c>
+      <c r="G110" s="13">
+        <v>-333</v>
+      </c>
+      <c r="H110" s="13">
+        <v>-4241</v>
+      </c>
+      <c r="I110" s="13">
+        <v>-980</v>
+      </c>
+      <c r="J110" s="13">
         <v>-321</v>
       </c>
-      <c r="F110" s="13">
+      <c r="K110" s="13">
         <v>-2437</v>
       </c>
-      <c r="G110" s="13">
-        <v>0</v>
-      </c>
-      <c r="H110" s="13">
+      <c r="L110" s="13">
+        <v>0</v>
+      </c>
+      <c r="M110" s="13">
         <v>-7026</v>
       </c>
-      <c r="I110" s="13">
+      <c r="N110" s="13">
         <v>-6745</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="11">
+        <v>18</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111" s="11">
         <v>-549</v>
       </c>
-      <c r="H111" s="11">
+      <c r="M111" s="11">
         <v>-21745</v>
       </c>
-      <c r="I111" s="11">
+      <c r="N111" s="11">
         <v>-18074</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17">
+        <v>-16622</v>
+      </c>
+      <c r="F112" s="17">
+        <v>1199</v>
+      </c>
+      <c r="G112" s="17">
+        <v>-8142</v>
+      </c>
+      <c r="H112" s="17">
+        <v>-9133</v>
+      </c>
+      <c r="I112" s="17">
+        <v>-2225</v>
+      </c>
+      <c r="J112" s="17">
         <v>-3174</v>
       </c>
-      <c r="F112" s="17">
+      <c r="K112" s="17">
         <v>-66302</v>
       </c>
-      <c r="G112" s="17">
+      <c r="L112" s="17">
         <v>-549</v>
       </c>
-      <c r="H112" s="17">
+      <c r="M112" s="17">
         <v>-28771</v>
       </c>
-      <c r="I112" s="17">
+      <c r="N112" s="17">
         <v>-24819</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -2959,87 +4344,137 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>-9984</v>
+      </c>
+      <c r="F114" s="11">
+        <v>10299</v>
+      </c>
+      <c r="G114" s="11">
+        <v>-10236</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="11">
+        <v>-1357</v>
+      </c>
+      <c r="J114" s="11">
         <v>-7296</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>-5131</v>
       </c>
-      <c r="G114" s="11">
-        <v>0</v>
-      </c>
-      <c r="H114" s="11">
+      <c r="L114" s="11">
+        <v>0</v>
+      </c>
+      <c r="M114" s="11">
         <v>-17540</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>17540</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
       <c r="E115" s="17">
+        <v>-9984</v>
+      </c>
+      <c r="F115" s="17">
+        <v>10299</v>
+      </c>
+      <c r="G115" s="17">
+        <v>-10236</v>
+      </c>
+      <c r="H115" s="17">
+        <v>0</v>
+      </c>
+      <c r="I115" s="17">
+        <v>-1357</v>
+      </c>
+      <c r="J115" s="17">
         <v>-7296</v>
       </c>
-      <c r="F115" s="17">
+      <c r="K115" s="17">
         <v>-5131</v>
       </c>
-      <c r="G115" s="17">
-        <v>0</v>
-      </c>
-      <c r="H115" s="17">
+      <c r="L115" s="17">
+        <v>0</v>
+      </c>
+      <c r="M115" s="17">
         <v>-17540</v>
       </c>
-      <c r="I115" s="17">
+      <c r="N115" s="17">
         <v>17540</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D116" s="15"/>
-      <c r="E116" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>13</v>
+      <c r="E116" s="15">
+        <v>0</v>
+      </c>
+      <c r="F116" s="15">
+        <v>0</v>
+      </c>
+      <c r="G116" s="15">
+        <v>0</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J116" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L116" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M116" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N116" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D117" s="17"/>
-      <c r="E117" s="17" t="s">
-        <v>13</v>
+      <c r="E117" s="17">
+        <v>0</v>
       </c>
       <c r="F117" s="17">
         <v>0</v>
@@ -3047,36 +4482,66 @@
       <c r="G117" s="17">
         <v>0</v>
       </c>
-      <c r="H117" s="17">
-        <v>0</v>
+      <c r="H117" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I117" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" s="17">
+        <v>0</v>
+      </c>
+      <c r="L117" s="17">
+        <v>0</v>
+      </c>
+      <c r="M117" s="17">
+        <v>0</v>
+      </c>
+      <c r="N117" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15">
+        <v>-671542</v>
+      </c>
+      <c r="F118" s="15">
+        <v>-674879</v>
+      </c>
+      <c r="G118" s="15">
+        <v>-792007</v>
+      </c>
+      <c r="H118" s="15">
+        <v>-778096</v>
+      </c>
+      <c r="I118" s="15">
+        <v>-1120104</v>
+      </c>
+      <c r="J118" s="15">
         <v>-1097998</v>
       </c>
-      <c r="F118" s="15">
+      <c r="K118" s="15">
         <v>-1187928</v>
       </c>
-      <c r="G118" s="15">
+      <c r="L118" s="15">
         <v>-1121670</v>
       </c>
-      <c r="H118" s="15">
+      <c r="M118" s="15">
         <v>-1224797</v>
       </c>
-      <c r="I118" s="15">
+      <c r="N118" s="15">
         <v>-1918305</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3085,8 +4550,13 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3095,8 +4565,13 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3105,10 +4580,15 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3127,8 +4607,23 @@
       <c r="I122" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3137,10 +4632,15 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -3149,224 +4649,364 @@
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
+        <v>33129</v>
+      </c>
+      <c r="F125" s="11">
+        <v>44344</v>
+      </c>
+      <c r="G125" s="11">
+        <v>10150</v>
+      </c>
+      <c r="H125" s="11">
+        <v>27784</v>
+      </c>
+      <c r="I125" s="11">
+        <v>57845</v>
+      </c>
+      <c r="J125" s="11">
         <v>65419</v>
       </c>
-      <c r="F125" s="11">
+      <c r="K125" s="11">
         <v>76882</v>
       </c>
-      <c r="G125" s="11">
+      <c r="L125" s="11">
         <v>48899</v>
       </c>
-      <c r="H125" s="11">
+      <c r="M125" s="11">
         <v>155763</v>
       </c>
-      <c r="I125" s="11">
+      <c r="N125" s="11">
         <v>108432</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D126" s="13"/>
-      <c r="E126" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>13</v>
+      <c r="E126" s="13">
+        <v>0</v>
+      </c>
+      <c r="F126" s="13">
+        <v>0</v>
+      </c>
+      <c r="G126" s="13">
+        <v>0</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N126" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
+        <v>771496</v>
+      </c>
+      <c r="F127" s="11">
+        <v>987120</v>
+      </c>
+      <c r="G127" s="11">
+        <v>783154</v>
+      </c>
+      <c r="H127" s="11">
+        <v>716440</v>
+      </c>
+      <c r="I127" s="11">
+        <v>518056</v>
+      </c>
+      <c r="J127" s="11">
         <v>890531</v>
       </c>
-      <c r="F127" s="11">
+      <c r="K127" s="11">
         <v>348303</v>
       </c>
-      <c r="G127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
+        <v>31716</v>
+      </c>
+      <c r="F128" s="13">
+        <v>20109</v>
+      </c>
+      <c r="G128" s="13">
+        <v>-11623</v>
+      </c>
+      <c r="H128" s="13">
+        <v>11464</v>
+      </c>
+      <c r="I128" s="13">
+        <v>81728</v>
+      </c>
+      <c r="J128" s="13">
         <v>-7598</v>
       </c>
-      <c r="F128" s="13">
+      <c r="K128" s="13">
         <v>-2913</v>
       </c>
-      <c r="G128" s="13">
+      <c r="L128" s="13">
         <v>6246</v>
       </c>
-      <c r="H128" s="13">
+      <c r="M128" s="13">
         <v>4054</v>
       </c>
-      <c r="I128" s="13">
+      <c r="N128" s="13">
         <v>-9287</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N129" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N130" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11">
+        <v>32977</v>
+      </c>
+      <c r="F131" s="11">
+        <v>50924</v>
+      </c>
+      <c r="G131" s="11">
+        <v>55524</v>
+      </c>
+      <c r="H131" s="11">
+        <v>97841</v>
+      </c>
+      <c r="I131" s="11">
+        <v>28487</v>
+      </c>
+      <c r="J131" s="11">
         <v>25410</v>
       </c>
-      <c r="F131" s="11">
+      <c r="K131" s="11">
         <v>54394</v>
       </c>
-      <c r="G131" s="11">
+      <c r="L131" s="11">
         <v>20462</v>
       </c>
-      <c r="H131" s="11">
+      <c r="M131" s="11">
         <v>102713</v>
       </c>
-      <c r="I131" s="11">
+      <c r="N131" s="11">
         <v>70738</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="13">
+        <v>18</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L132" s="13">
         <v>673530</v>
       </c>
-      <c r="H132" s="13">
+      <c r="M132" s="13">
         <v>1521496</v>
       </c>
-      <c r="I132" s="13">
+      <c r="N132" s="13">
         <v>1665667</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15">
+        <v>869318</v>
+      </c>
+      <c r="F133" s="15">
+        <v>1102497</v>
+      </c>
+      <c r="G133" s="15">
+        <v>837205</v>
+      </c>
+      <c r="H133" s="15">
+        <v>853529</v>
+      </c>
+      <c r="I133" s="15">
+        <v>686116</v>
+      </c>
+      <c r="J133" s="15">
         <v>973762</v>
       </c>
-      <c r="F133" s="15">
+      <c r="K133" s="15">
         <v>476666</v>
       </c>
-      <c r="G133" s="15">
+      <c r="L133" s="15">
         <v>749137</v>
       </c>
-      <c r="H133" s="15">
+      <c r="M133" s="15">
         <v>1784026</v>
       </c>
-      <c r="I133" s="15">
+      <c r="N133" s="15">
         <v>1835550</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -3375,13 +5015,18 @@
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11">
@@ -3390,46 +5035,76 @@
       <c r="F135" s="11">
         <v>0</v>
       </c>
-      <c r="G135" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I135" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G135" s="11">
+        <v>2614</v>
+      </c>
+      <c r="H135" s="11">
+        <v>0</v>
+      </c>
+      <c r="I135" s="11">
+        <v>0</v>
+      </c>
+      <c r="J135" s="11">
+        <v>0</v>
+      </c>
+      <c r="K135" s="11">
+        <v>0</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N135" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13">
+        <v>33800</v>
+      </c>
+      <c r="F136" s="13">
+        <v>8105</v>
+      </c>
+      <c r="G136" s="13">
+        <v>11403</v>
+      </c>
+      <c r="H136" s="13">
+        <v>9651</v>
+      </c>
+      <c r="I136" s="13">
+        <v>162</v>
+      </c>
+      <c r="J136" s="13">
         <v>5734</v>
       </c>
-      <c r="F136" s="13">
+      <c r="K136" s="13">
         <v>32723</v>
       </c>
-      <c r="G136" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I136" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N136" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
@@ -3438,137 +5113,227 @@
       <c r="F137" s="11">
         <v>0</v>
       </c>
-      <c r="G137" s="11" t="s">
-        <v>13</v>
+      <c r="G137" s="11">
+        <v>0</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I137" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I137" s="11">
+        <v>0</v>
+      </c>
+      <c r="J137" s="11">
+        <v>0</v>
+      </c>
+      <c r="K137" s="11">
+        <v>0</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N138" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N139" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D140" s="13"/>
       <c r="E140" s="13">
+        <v>1293</v>
+      </c>
+      <c r="F140" s="13">
+        <v>-543</v>
+      </c>
+      <c r="G140" s="13">
+        <v>-333</v>
+      </c>
+      <c r="H140" s="13">
+        <v>1844</v>
+      </c>
+      <c r="I140" s="13">
+        <v>-980</v>
+      </c>
+      <c r="J140" s="13">
         <v>1735</v>
       </c>
-      <c r="F140" s="13">
+      <c r="K140" s="13">
         <v>248</v>
       </c>
-      <c r="G140" s="13">
-        <v>0</v>
-      </c>
-      <c r="H140" s="13">
+      <c r="L140" s="13">
+        <v>0</v>
+      </c>
+      <c r="M140" s="13">
         <v>2223</v>
       </c>
-      <c r="I140" s="13">
+      <c r="N140" s="13">
         <v>23351</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="11">
+        <v>18</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L141" s="11">
         <v>701</v>
       </c>
-      <c r="H141" s="11">
+      <c r="M141" s="11">
         <v>34353</v>
       </c>
-      <c r="I141" s="11">
+      <c r="N141" s="11">
         <v>8679</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
       <c r="E142" s="17">
+        <v>35093</v>
+      </c>
+      <c r="F142" s="17">
+        <v>7562</v>
+      </c>
+      <c r="G142" s="17">
+        <v>13684</v>
+      </c>
+      <c r="H142" s="17">
+        <v>11495</v>
+      </c>
+      <c r="I142" s="17">
+        <v>-818</v>
+      </c>
+      <c r="J142" s="17">
         <v>7469</v>
       </c>
-      <c r="F142" s="17">
+      <c r="K142" s="17">
         <v>32971</v>
       </c>
-      <c r="G142" s="17">
+      <c r="L142" s="17">
         <v>701</v>
       </c>
-      <c r="H142" s="17">
+      <c r="M142" s="17">
         <v>36576</v>
       </c>
-      <c r="I142" s="17">
+      <c r="N142" s="17">
         <v>32030</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -3577,72 +5342,122 @@
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
+        <v>-3723</v>
+      </c>
+      <c r="F144" s="11">
+        <v>3382</v>
+      </c>
+      <c r="G144" s="11">
+        <v>5663</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="11">
+        <v>349</v>
+      </c>
+      <c r="J144" s="11">
         <v>1816</v>
       </c>
-      <c r="F144" s="11">
+      <c r="K144" s="11">
         <v>4596</v>
       </c>
-      <c r="G144" s="11">
-        <v>0</v>
-      </c>
-      <c r="H144" s="11">
+      <c r="L144" s="11">
+        <v>0</v>
+      </c>
+      <c r="M144" s="11">
         <v>-776</v>
       </c>
-      <c r="I144" s="11">
+      <c r="N144" s="11">
         <v>776</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
       <c r="E145" s="17">
+        <v>-3723</v>
+      </c>
+      <c r="F145" s="17">
+        <v>3382</v>
+      </c>
+      <c r="G145" s="17">
+        <v>5663</v>
+      </c>
+      <c r="H145" s="17">
+        <v>0</v>
+      </c>
+      <c r="I145" s="17">
+        <v>349</v>
+      </c>
+      <c r="J145" s="17">
         <v>1816</v>
       </c>
-      <c r="F145" s="17">
+      <c r="K145" s="17">
         <v>4596</v>
       </c>
-      <c r="G145" s="17">
-        <v>0</v>
-      </c>
-      <c r="H145" s="17">
+      <c r="L145" s="17">
+        <v>0</v>
+      </c>
+      <c r="M145" s="17">
         <v>-776</v>
       </c>
-      <c r="I145" s="17">
+      <c r="N145" s="17">
         <v>776</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="15">
+        <v>900688</v>
+      </c>
+      <c r="F146" s="15">
+        <v>1113441</v>
+      </c>
+      <c r="G146" s="15">
+        <v>856552</v>
+      </c>
+      <c r="H146" s="15">
+        <v>865024</v>
+      </c>
+      <c r="I146" s="15">
+        <v>685647</v>
+      </c>
+      <c r="J146" s="15">
         <v>983047</v>
       </c>
-      <c r="F146" s="15">
+      <c r="K146" s="15">
         <v>514233</v>
       </c>
-      <c r="G146" s="15">
+      <c r="L146" s="15">
         <v>749838</v>
       </c>
-      <c r="H146" s="15">
+      <c r="M146" s="15">
         <v>1819826</v>
       </c>
-      <c r="I146" s="15">
+      <c r="N146" s="15">
         <v>1868356</v>
       </c>
     </row>

--- a/database/industries/darou/desobhan/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/desobhan/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D61B6B8-448F-4F46-8F65-EA8B8B00940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39888E0-CDA2-4730-AEDF-837527EAF409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="70">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -706,12 +706,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -726,7 +726,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,7 +743,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -775,7 +775,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -824,7 +824,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -876,7 +876,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -902,37 +902,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>24003</v>
+        <v>24046</v>
       </c>
       <c r="F11" s="11">
-        <v>24046</v>
+        <v>23932</v>
       </c>
       <c r="G11" s="11">
-        <v>23932</v>
+        <v>23866</v>
       </c>
       <c r="H11" s="11">
-        <v>23866</v>
+        <v>36995</v>
       </c>
       <c r="I11" s="11">
-        <v>36995</v>
-      </c>
-      <c r="J11" s="11">
         <v>38340</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>34913</v>
       </c>
       <c r="L11" s="11">
-        <v>34913</v>
+        <v>37300</v>
       </c>
       <c r="M11" s="11">
-        <v>37300</v>
+        <v>28762</v>
       </c>
       <c r="N11" s="11">
-        <v>28762</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14766</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -946,8 +946,8 @@
       <c r="F12" s="13">
         <v>0</v>
       </c>
-      <c r="G12" s="13">
-        <v>0</v>
+      <c r="G12" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>18</v>
@@ -971,7 +971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -980,26 +980,26 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>880055</v>
+        <v>871001</v>
       </c>
       <c r="F13" s="11">
-        <v>871001</v>
+        <v>925673</v>
       </c>
       <c r="G13" s="11">
-        <v>925673</v>
+        <v>848844</v>
       </c>
       <c r="H13" s="11">
-        <v>848844</v>
+        <v>837244</v>
       </c>
       <c r="I13" s="11">
-        <v>837244</v>
+        <v>879533</v>
       </c>
       <c r="J13" s="11">
-        <v>879533</v>
-      </c>
-      <c r="K13" s="11">
         <v>852410</v>
       </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="F14" s="13">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G14" s="13">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="H14" s="13">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="I14" s="13">
-        <v>362</v>
-      </c>
-      <c r="J14" s="13">
         <v>386</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13">
+        <v>355</v>
       </c>
       <c r="L14" s="13">
-        <v>355</v>
+        <v>59</v>
       </c>
       <c r="M14" s="13">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N14" s="13">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
@@ -1136,37 +1136,37 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>2861</v>
+        <v>2497</v>
       </c>
       <c r="F17" s="11">
-        <v>2497</v>
+        <v>2112</v>
       </c>
       <c r="G17" s="11">
-        <v>2112</v>
+        <v>2404</v>
       </c>
       <c r="H17" s="11">
-        <v>2404</v>
+        <v>2161</v>
       </c>
       <c r="I17" s="11">
-        <v>2161</v>
-      </c>
-      <c r="J17" s="11">
         <v>2351</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11">
+        <v>2136</v>
       </c>
       <c r="L17" s="11">
-        <v>2136</v>
+        <v>1388</v>
       </c>
       <c r="M17" s="11">
-        <v>1388</v>
+        <v>2826</v>
       </c>
       <c r="N17" s="11">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
@@ -1192,57 +1192,57 @@
       <c r="J18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>18</v>
+      <c r="K18" s="13">
+        <v>862861</v>
       </c>
       <c r="L18" s="13">
-        <v>862861</v>
+        <v>732682</v>
       </c>
       <c r="M18" s="13">
-        <v>732682</v>
+        <v>1162364</v>
       </c>
       <c r="N18" s="13">
-        <v>1162364</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>818905</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>907191</v>
+        <v>897744</v>
       </c>
       <c r="F19" s="15">
-        <v>897744</v>
+        <v>951896</v>
       </c>
       <c r="G19" s="15">
-        <v>951896</v>
+        <v>875258</v>
       </c>
       <c r="H19" s="15">
-        <v>875258</v>
+        <v>876762</v>
       </c>
       <c r="I19" s="15">
-        <v>876762</v>
+        <v>920610</v>
       </c>
       <c r="J19" s="15">
-        <v>920610</v>
+        <v>852410</v>
       </c>
       <c r="K19" s="15">
-        <v>852410</v>
+        <v>900265</v>
       </c>
       <c r="L19" s="15">
-        <v>900265</v>
+        <v>771429</v>
       </c>
       <c r="M19" s="15">
-        <v>771429</v>
+        <v>1194010</v>
       </c>
       <c r="N19" s="15">
-        <v>1194010</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>835992</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>31</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G21" s="11">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
@@ -1285,8 +1285,8 @@
       <c r="J21" s="11">
         <v>0</v>
       </c>
-      <c r="K21" s="11">
-        <v>0</v>
+      <c r="K21" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>18</v>
@@ -1298,7 +1298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>21</v>
       </c>
@@ -1307,26 +1307,26 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>15813</v>
+        <v>5300</v>
       </c>
       <c r="F22" s="13">
-        <v>5300</v>
+        <v>3180</v>
       </c>
       <c r="G22" s="13">
-        <v>3180</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="13">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="13">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="J22" s="13">
-        <v>2700</v>
-      </c>
-      <c r="K22" s="13">
         <v>41000</v>
       </c>
+      <c r="K22" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L22" s="13" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
@@ -1351,11 +1351,11 @@
       <c r="F23" s="11">
         <v>0</v>
       </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>18</v>
+      <c r="G23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <v>0</v>
@@ -1363,8 +1363,8 @@
       <c r="J23" s="11">
         <v>0</v>
       </c>
-      <c r="K23" s="11">
-        <v>0</v>
+      <c r="K23" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>18</v>
@@ -1376,7 +1376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>24</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>25</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
@@ -1463,37 +1463,37 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="F26" s="13">
         <v>0</v>
       </c>
       <c r="G26" s="13">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="H26" s="13">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
         <v>50</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>18</v>
+      <c r="J26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="13">
+        <v>0</v>
       </c>
       <c r="L26" s="13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M26" s="13">
-        <v>180</v>
+        <v>625</v>
       </c>
       <c r="N26" s="13">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1519,57 +1519,57 @@
       <c r="J27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>18</v>
+      <c r="K27" s="11">
+        <v>1000</v>
       </c>
       <c r="L27" s="11">
-        <v>1000</v>
+        <v>25999</v>
       </c>
       <c r="M27" s="11">
-        <v>25999</v>
+        <v>15350</v>
       </c>
       <c r="N27" s="11">
-        <v>15350</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
-        <v>15900</v>
+        <v>5300</v>
       </c>
       <c r="F28" s="17">
-        <v>5300</v>
+        <v>4380</v>
       </c>
       <c r="G28" s="17">
-        <v>4380</v>
+        <v>6210</v>
       </c>
       <c r="H28" s="17">
-        <v>6210</v>
+        <v>1000</v>
       </c>
       <c r="I28" s="17">
+        <v>2750</v>
+      </c>
+      <c r="J28" s="17">
+        <v>41000</v>
+      </c>
+      <c r="K28" s="17">
         <v>1000</v>
       </c>
-      <c r="J28" s="17">
-        <v>2750</v>
-      </c>
-      <c r="K28" s="17">
-        <v>41000</v>
-      </c>
       <c r="L28" s="17">
-        <v>1000</v>
+        <v>26179</v>
       </c>
       <c r="M28" s="17">
-        <v>26179</v>
+        <v>15975</v>
       </c>
       <c r="N28" s="17">
-        <v>15975</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>34</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>19</v>
       </c>
@@ -1598,20 +1598,20 @@
       <c r="F30" s="11">
         <v>0</v>
       </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>18</v>
+      <c r="G30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <v>0</v>
       </c>
-      <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>18</v>
+      <c r="J30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
       </c>
       <c r="L30" s="11">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>35</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>36</v>
       </c>
@@ -1674,8 +1674,8 @@
       <c r="F32" s="15">
         <v>0</v>
       </c>
-      <c r="G32" s="15">
-        <v>0</v>
+      <c r="G32" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>18</v>
@@ -1699,7 +1699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>38</v>
       </c>
@@ -1711,20 +1711,20 @@
       <c r="F33" s="17">
         <v>0</v>
       </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
+      <c r="G33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="17">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>18</v>
+      <c r="K33" s="17">
+        <v>0</v>
       </c>
       <c r="L33" s="17">
         <v>0</v>
@@ -1736,44 +1736,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>923091</v>
+        <v>903044</v>
       </c>
       <c r="F34" s="15">
-        <v>903044</v>
+        <v>956276</v>
       </c>
       <c r="G34" s="15">
-        <v>956276</v>
+        <v>881468</v>
       </c>
       <c r="H34" s="15">
-        <v>881468</v>
+        <v>877762</v>
       </c>
       <c r="I34" s="15">
-        <v>877762</v>
+        <v>923360</v>
       </c>
       <c r="J34" s="15">
-        <v>923360</v>
+        <v>893410</v>
       </c>
       <c r="K34" s="15">
-        <v>893410</v>
+        <v>901265</v>
       </c>
       <c r="L34" s="15">
-        <v>901265</v>
+        <v>797608</v>
       </c>
       <c r="M34" s="15">
-        <v>797608</v>
+        <v>1209985</v>
       </c>
       <c r="N34" s="15">
-        <v>1209985</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>836592</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1788,7 +1788,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1803,7 +1803,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1818,7 +1818,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>40</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1870,7 +1870,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>41</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
@@ -1896,37 +1896,37 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>60334</v>
+        <v>76419</v>
       </c>
       <c r="F41" s="11">
-        <v>76419</v>
+        <v>50106</v>
       </c>
       <c r="G41" s="11">
-        <v>50106</v>
+        <v>70108</v>
       </c>
       <c r="H41" s="11">
-        <v>70108</v>
+        <v>136585</v>
       </c>
       <c r="I41" s="11">
-        <v>136585</v>
-      </c>
-      <c r="J41" s="11">
         <v>145086</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>18</v>
+      <c r="J41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="11">
+        <v>136456</v>
       </c>
       <c r="L41" s="11">
-        <v>136456</v>
+        <v>226121</v>
       </c>
       <c r="M41" s="11">
-        <v>226121</v>
+        <v>193485</v>
       </c>
       <c r="N41" s="11">
-        <v>193485</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>119473</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>19</v>
       </c>
@@ -1940,8 +1940,8 @@
       <c r="F42" s="13">
         <v>0</v>
       </c>
-      <c r="G42" s="13">
-        <v>0</v>
+      <c r="G42" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>18</v>
@@ -1965,7 +1965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>21</v>
       </c>
@@ -1974,26 +1974,26 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>1305778</v>
+        <v>1569483</v>
       </c>
       <c r="F43" s="11">
-        <v>1569483</v>
+        <v>1425547</v>
       </c>
       <c r="G43" s="11">
-        <v>1425547</v>
+        <v>1349092</v>
       </c>
       <c r="H43" s="11">
-        <v>1349092</v>
+        <v>1431681</v>
       </c>
       <c r="I43" s="11">
-        <v>1431681</v>
+        <v>1782599</v>
       </c>
       <c r="J43" s="11">
-        <v>1782599</v>
-      </c>
-      <c r="K43" s="11">
         <v>1238543</v>
       </c>
+      <c r="K43" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L43" s="11" t="s">
         <v>18</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>22</v>
       </c>
@@ -2013,37 +2013,37 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>49891</v>
+        <v>32383</v>
       </c>
       <c r="F44" s="13">
-        <v>32383</v>
+        <v>6545</v>
       </c>
       <c r="G44" s="13">
-        <v>6545</v>
+        <v>23899</v>
       </c>
       <c r="H44" s="13">
-        <v>23899</v>
+        <v>112850</v>
       </c>
       <c r="I44" s="13">
-        <v>112850</v>
-      </c>
-      <c r="J44" s="13">
         <v>3870</v>
       </c>
-      <c r="K44" s="13" t="s">
-        <v>18</v>
+      <c r="J44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="13">
+        <v>21530</v>
       </c>
       <c r="L44" s="13">
-        <v>21530</v>
+        <v>-118</v>
       </c>
       <c r="M44" s="13">
-        <v>-118</v>
+        <v>22090</v>
       </c>
       <c r="N44" s="13">
-        <v>22090</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2181</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>24</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>25</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>27</v>
       </c>
@@ -2130,37 +2130,37 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>98251</v>
+        <v>110589</v>
       </c>
       <c r="F47" s="11">
-        <v>110589</v>
+        <v>128636</v>
       </c>
       <c r="G47" s="11">
-        <v>128636</v>
+        <v>179393</v>
       </c>
       <c r="H47" s="11">
-        <v>179393</v>
+        <v>121522</v>
       </c>
       <c r="I47" s="11">
-        <v>121522</v>
-      </c>
-      <c r="J47" s="11">
         <v>129735</v>
       </c>
-      <c r="K47" s="11" t="s">
-        <v>18</v>
+      <c r="J47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="11">
+        <v>126791</v>
       </c>
       <c r="L47" s="11">
-        <v>126791</v>
+        <v>204643</v>
       </c>
       <c r="M47" s="11">
-        <v>204643</v>
+        <v>257282</v>
       </c>
       <c r="N47" s="11">
-        <v>257282</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>243946</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>29</v>
       </c>
@@ -2186,57 +2186,57 @@
       <c r="J48" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>18</v>
+      <c r="K48" s="13">
+        <v>1585481</v>
       </c>
       <c r="L48" s="13">
-        <v>1585481</v>
+        <v>2531866</v>
       </c>
       <c r="M48" s="13">
-        <v>2531866</v>
+        <v>3273719</v>
       </c>
       <c r="N48" s="13">
-        <v>3273719</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3262009</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15">
-        <v>1514254</v>
+        <v>1788874</v>
       </c>
       <c r="F49" s="15">
-        <v>1788874</v>
+        <v>1610834</v>
       </c>
       <c r="G49" s="15">
-        <v>1610834</v>
+        <v>1622492</v>
       </c>
       <c r="H49" s="15">
-        <v>1622492</v>
+        <v>1802638</v>
       </c>
       <c r="I49" s="15">
-        <v>1802638</v>
+        <v>2061290</v>
       </c>
       <c r="J49" s="15">
-        <v>2061290</v>
+        <v>1238543</v>
       </c>
       <c r="K49" s="15">
-        <v>1238543</v>
+        <v>1870258</v>
       </c>
       <c r="L49" s="15">
-        <v>1870258</v>
+        <v>2962512</v>
       </c>
       <c r="M49" s="15">
-        <v>2962512</v>
+        <v>3746576</v>
       </c>
       <c r="N49" s="15">
-        <v>3746576</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3623247</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>43</v>
       </c>
@@ -2253,7 +2253,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
@@ -2265,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="11">
-        <v>0</v>
+        <v>3817</v>
       </c>
       <c r="G51" s="11">
-        <v>3817</v>
+        <v>0</v>
       </c>
       <c r="H51" s="11">
         <v>0</v>
@@ -2279,8 +2279,8 @@
       <c r="J51" s="11">
         <v>0</v>
       </c>
-      <c r="K51" s="11">
-        <v>0</v>
+      <c r="K51" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L51" s="11" t="s">
         <v>18</v>
@@ -2292,7 +2292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>21</v>
       </c>
@@ -2301,26 +2301,26 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>49022</v>
+        <v>6363</v>
       </c>
       <c r="F52" s="13">
-        <v>6363</v>
+        <v>18009</v>
       </c>
       <c r="G52" s="13">
-        <v>18009</v>
+        <v>14543</v>
       </c>
       <c r="H52" s="13">
-        <v>14543</v>
+        <v>1407</v>
       </c>
       <c r="I52" s="13">
-        <v>1407</v>
+        <v>8587</v>
       </c>
       <c r="J52" s="13">
-        <v>8587</v>
-      </c>
-      <c r="K52" s="13">
         <v>96588</v>
       </c>
+      <c r="K52" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L52" s="13" t="s">
         <v>18</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>22</v>
       </c>
@@ -2345,11 +2345,11 @@
       <c r="F53" s="11">
         <v>0</v>
       </c>
-      <c r="G53" s="11">
-        <v>0</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>18</v>
+      <c r="G53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
       </c>
       <c r="I53" s="11">
         <v>0</v>
@@ -2357,8 +2357,8 @@
       <c r="J53" s="11">
         <v>0</v>
       </c>
-      <c r="K53" s="11">
-        <v>0</v>
+      <c r="K53" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L53" s="11" t="s">
         <v>18</v>
@@ -2370,7 +2370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>24</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>25</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>27</v>
       </c>
@@ -2457,37 +2457,37 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>2693</v>
+        <v>0</v>
       </c>
       <c r="F56" s="13">
         <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>0</v>
+        <v>6085</v>
       </c>
       <c r="H56" s="13">
-        <v>6085</v>
+        <v>0</v>
       </c>
       <c r="I56" s="13">
-        <v>0</v>
-      </c>
-      <c r="J56" s="13">
         <v>2056</v>
       </c>
-      <c r="K56" s="13" t="s">
-        <v>18</v>
+      <c r="J56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="13">
+        <v>0</v>
       </c>
       <c r="L56" s="13">
-        <v>0</v>
+        <v>9249</v>
       </c>
       <c r="M56" s="13">
-        <v>9249</v>
+        <v>30096</v>
       </c>
       <c r="N56" s="13">
-        <v>30096</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>29</v>
       </c>
@@ -2513,57 +2513,57 @@
       <c r="J57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="11" t="s">
-        <v>18</v>
+      <c r="K57" s="11">
+        <v>1250</v>
       </c>
       <c r="L57" s="11">
-        <v>1250</v>
+        <v>56098</v>
       </c>
       <c r="M57" s="11">
-        <v>56098</v>
+        <v>26753</v>
       </c>
       <c r="N57" s="11">
-        <v>26753</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17">
-        <v>51715</v>
+        <v>6363</v>
       </c>
       <c r="F58" s="17">
-        <v>6363</v>
+        <v>21826</v>
       </c>
       <c r="G58" s="17">
-        <v>21826</v>
+        <v>20628</v>
       </c>
       <c r="H58" s="17">
-        <v>20628</v>
+        <v>1407</v>
       </c>
       <c r="I58" s="17">
-        <v>1407</v>
+        <v>10643</v>
       </c>
       <c r="J58" s="17">
-        <v>10643</v>
+        <v>96588</v>
       </c>
       <c r="K58" s="17">
-        <v>96588</v>
+        <v>1250</v>
       </c>
       <c r="L58" s="17">
-        <v>1250</v>
+        <v>65347</v>
       </c>
       <c r="M58" s="17">
-        <v>65347</v>
+        <v>56849</v>
       </c>
       <c r="N58" s="17">
-        <v>56849</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>44</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>19</v>
       </c>
@@ -2589,74 +2589,74 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>6261</v>
+        <v>-6917</v>
       </c>
       <c r="F60" s="11">
-        <v>-6917</v>
-      </c>
-      <c r="G60" s="11">
         <v>15899</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>18</v>
+      <c r="G60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="11">
+        <v>579</v>
       </c>
       <c r="I60" s="11">
-        <v>579</v>
-      </c>
-      <c r="J60" s="11">
         <v>9112</v>
       </c>
-      <c r="K60" s="11" t="s">
-        <v>18</v>
+      <c r="J60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="11">
+        <v>0</v>
       </c>
       <c r="L60" s="11">
-        <v>0</v>
+        <v>16764</v>
       </c>
       <c r="M60" s="11">
-        <v>16764</v>
+        <v>-16764</v>
       </c>
       <c r="N60" s="11">
-        <v>-16764</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27432</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17">
-        <v>6261</v>
+        <v>-6917</v>
       </c>
       <c r="F61" s="17">
-        <v>-6917</v>
+        <v>15899</v>
       </c>
       <c r="G61" s="17">
-        <v>15899</v>
+        <v>0</v>
       </c>
       <c r="H61" s="17">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="I61" s="17">
-        <v>579</v>
+        <v>9112</v>
       </c>
       <c r="J61" s="17">
-        <v>9112</v>
+        <v>0</v>
       </c>
       <c r="K61" s="17">
         <v>0</v>
       </c>
       <c r="L61" s="17">
-        <v>0</v>
+        <v>16764</v>
       </c>
       <c r="M61" s="17">
-        <v>16764</v>
+        <v>-16764</v>
       </c>
       <c r="N61" s="17">
-        <v>-16764</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27432</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>36</v>
       </c>
@@ -2670,8 +2670,8 @@
       <c r="F62" s="15">
         <v>0</v>
       </c>
-      <c r="G62" s="15">
-        <v>0</v>
+      <c r="G62" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>18</v>
@@ -2695,7 +2695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="16" t="s">
         <v>38</v>
       </c>
@@ -2709,20 +2709,20 @@
       <c r="F63" s="17">
         <v>0</v>
       </c>
-      <c r="G63" s="17">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="17">
-        <v>0</v>
+      <c r="G63" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="17">
+        <v>0</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="J63" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="17" t="s">
-        <v>18</v>
+      <c r="K63" s="17">
+        <v>0</v>
       </c>
       <c r="L63" s="17">
         <v>0</v>
@@ -2734,44 +2734,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>1572230</v>
+        <v>1788320</v>
       </c>
       <c r="F64" s="15">
-        <v>1788320</v>
+        <v>1648559</v>
       </c>
       <c r="G64" s="15">
-        <v>1648559</v>
+        <v>1643120</v>
       </c>
       <c r="H64" s="15">
-        <v>1643120</v>
+        <v>1804624</v>
       </c>
       <c r="I64" s="15">
-        <v>1804624</v>
+        <v>2081045</v>
       </c>
       <c r="J64" s="15">
-        <v>2081045</v>
+        <v>1335131</v>
       </c>
       <c r="K64" s="15">
-        <v>1335131</v>
+        <v>1871508</v>
       </c>
       <c r="L64" s="15">
-        <v>1871508</v>
+        <v>3044623</v>
       </c>
       <c r="M64" s="15">
-        <v>3044623</v>
+        <v>3786661</v>
       </c>
       <c r="N64" s="15">
-        <v>3786661</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3652655</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2786,7 +2786,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2801,7 +2801,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2816,7 +2816,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>45</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2868,7 +2868,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>46</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>16</v>
       </c>
@@ -2894,37 +2894,37 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>2513602</v>
+        <v>3178034</v>
       </c>
       <c r="F71" s="11">
-        <v>3178034</v>
+        <v>2093682</v>
       </c>
       <c r="G71" s="11">
-        <v>2093682</v>
+        <v>2937568</v>
       </c>
       <c r="H71" s="11">
-        <v>2937568</v>
+        <v>3691985</v>
       </c>
       <c r="I71" s="11">
-        <v>3691985</v>
+        <v>3784293</v>
       </c>
       <c r="J71" s="11">
-        <v>3784293</v>
+        <v>3846022</v>
       </c>
       <c r="K71" s="11">
-        <v>3846022</v>
+        <v>3908458</v>
       </c>
       <c r="L71" s="11">
-        <v>3908458</v>
+        <v>6062225</v>
       </c>
       <c r="M71" s="11">
-        <v>6062225</v>
+        <v>6727105</v>
       </c>
       <c r="N71" s="11">
-        <v>6727105</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8091088</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>19</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>21</v>
       </c>
@@ -2972,26 +2972,26 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>1483746</v>
+        <v>1801930</v>
       </c>
       <c r="F73" s="11">
-        <v>1801930</v>
+        <v>1540011</v>
       </c>
       <c r="G73" s="11">
-        <v>1540011</v>
+        <v>1589329</v>
       </c>
       <c r="H73" s="11">
-        <v>1589329</v>
+        <v>1709993</v>
       </c>
       <c r="I73" s="11">
-        <v>1709993</v>
+        <v>2026756</v>
       </c>
       <c r="J73" s="11">
-        <v>2026756</v>
-      </c>
-      <c r="K73" s="11">
         <v>1452990</v>
       </c>
+      <c r="K73" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L73" s="11" t="s">
         <v>18</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>22</v>
       </c>
@@ -3011,37 +3011,37 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>183422794</v>
+        <v>161915000</v>
       </c>
       <c r="F74" s="13">
-        <v>161915000</v>
+        <v>36564246</v>
       </c>
       <c r="G74" s="13">
-        <v>36564246</v>
+        <v>165965278</v>
       </c>
       <c r="H74" s="13">
-        <v>165965278</v>
+        <v>311740331</v>
       </c>
       <c r="I74" s="13">
-        <v>311740331</v>
+        <v>10025907</v>
       </c>
       <c r="J74" s="13">
-        <v>10025907</v>
+        <v>-47905063</v>
       </c>
       <c r="K74" s="13">
-        <v>-47905063</v>
+        <v>60647887</v>
       </c>
       <c r="L74" s="13">
-        <v>60647887</v>
+        <v>-2000000</v>
       </c>
       <c r="M74" s="13">
-        <v>-2000000</v>
+        <v>380862069</v>
       </c>
       <c r="N74" s="13">
-        <v>380862069</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14938356</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>24</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>25</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>27</v>
       </c>
@@ -3128,37 +3128,37 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>34341489</v>
+        <v>44288747</v>
       </c>
       <c r="F77" s="11">
-        <v>44288747</v>
+        <v>60907197</v>
       </c>
       <c r="G77" s="11">
-        <v>60907197</v>
+        <v>74622712</v>
       </c>
       <c r="H77" s="11">
-        <v>74622712</v>
+        <v>56234151</v>
       </c>
       <c r="I77" s="11">
-        <v>56234151</v>
+        <v>55182901</v>
       </c>
       <c r="J77" s="11">
-        <v>55182901</v>
+        <v>73543644</v>
       </c>
       <c r="K77" s="11">
-        <v>73543644</v>
+        <v>59359082</v>
       </c>
       <c r="L77" s="11">
-        <v>59359082</v>
+        <v>147437320</v>
       </c>
       <c r="M77" s="11">
-        <v>147437320</v>
+        <v>91041047</v>
       </c>
       <c r="N77" s="11">
-        <v>91041047</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>112159080</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>29</v>
       </c>
@@ -3184,20 +3184,20 @@
       <c r="J78" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K78" s="13" t="s">
-        <v>18</v>
+      <c r="K78" s="13">
+        <v>1837470</v>
       </c>
       <c r="L78" s="13">
-        <v>1837470</v>
+        <v>3455614</v>
       </c>
       <c r="M78" s="13">
-        <v>3455614</v>
+        <v>2816432</v>
       </c>
       <c r="N78" s="13">
-        <v>2816432</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3983379</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>52</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>16</v>
       </c>
@@ -3225,12 +3225,12 @@
       <c r="E80" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F80" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" s="11">
+      <c r="F80" s="11">
         <v>3180833</v>
       </c>
+      <c r="G80" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="H80" s="11" t="s">
         <v>18</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>21</v>
       </c>
@@ -3262,26 +3262,26 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>3100108</v>
+        <v>1200566</v>
       </c>
       <c r="F81" s="13">
-        <v>1200566</v>
+        <v>5663208</v>
       </c>
       <c r="G81" s="13">
-        <v>5663208</v>
+        <v>2423833</v>
       </c>
       <c r="H81" s="13">
-        <v>2423833</v>
+        <v>1407000</v>
       </c>
       <c r="I81" s="13">
-        <v>1407000</v>
+        <v>3180370</v>
       </c>
       <c r="J81" s="13">
-        <v>3180370</v>
-      </c>
-      <c r="K81" s="13">
         <v>2355805</v>
       </c>
+      <c r="K81" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L81" s="13" t="s">
         <v>18</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>22</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>24</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>25</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>27</v>
       </c>
@@ -3417,38 +3417,38 @@
         <v>51</v>
       </c>
       <c r="D85" s="13"/>
-      <c r="E85" s="13">
-        <v>30954023</v>
+      <c r="E85" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="13">
+      <c r="G85" s="13">
         <v>28976190</v>
       </c>
-      <c r="I85" s="13" t="s">
-        <v>18</v>
+      <c r="H85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="13">
+        <v>41120000</v>
       </c>
       <c r="J85" s="13">
-        <v>41120000</v>
-      </c>
-      <c r="K85" s="13">
         <v>53700000</v>
       </c>
-      <c r="L85" s="13" t="s">
-        <v>18</v>
+      <c r="K85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="13">
+        <v>51383333</v>
       </c>
       <c r="M85" s="13">
-        <v>51383333</v>
-      </c>
-      <c r="N85" s="13">
         <v>48153600</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N85" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>29</v>
       </c>
@@ -3474,20 +3474,20 @@
       <c r="J86" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K86" s="11" t="s">
-        <v>18</v>
+      <c r="K86" s="11">
+        <v>1250000</v>
       </c>
       <c r="L86" s="11">
-        <v>1250000</v>
+        <v>2157698</v>
       </c>
       <c r="M86" s="11">
-        <v>2157698</v>
+        <v>1742866</v>
       </c>
       <c r="N86" s="11">
-        <v>1742866</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3293333</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>54</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>19</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3558,7 +3558,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3573,7 +3573,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3588,7 +3588,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>56</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3640,7 +3640,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>57</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>16</v>
       </c>
@@ -3666,37 +3666,37 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>-27205</v>
+        <v>-32075</v>
       </c>
       <c r="F95" s="11">
-        <v>-32075</v>
+        <v>-39956</v>
       </c>
       <c r="G95" s="11">
-        <v>-39956</v>
+        <v>-42324</v>
       </c>
       <c r="H95" s="11">
-        <v>-42324</v>
+        <v>-78740</v>
       </c>
       <c r="I95" s="11">
-        <v>-78740</v>
+        <v>-79667</v>
       </c>
       <c r="J95" s="11">
-        <v>-79667</v>
+        <v>-82251</v>
       </c>
       <c r="K95" s="11">
-        <v>-82251</v>
+        <v>-87557</v>
       </c>
       <c r="L95" s="11">
-        <v>-87557</v>
+        <v>-70358</v>
       </c>
       <c r="M95" s="11">
-        <v>-70358</v>
+        <v>-85053</v>
       </c>
       <c r="N95" s="11">
-        <v>-85053</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-75311</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>19</v>
       </c>
@@ -3710,8 +3710,8 @@
       <c r="F96" s="13">
         <v>0</v>
       </c>
-      <c r="G96" s="13">
-        <v>0</v>
+      <c r="G96" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>18</v>
@@ -3735,7 +3735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>21</v>
       </c>
@@ -3744,26 +3744,26 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>-534282</v>
+        <v>-582363</v>
       </c>
       <c r="F97" s="11">
-        <v>-582363</v>
+        <v>-642393</v>
       </c>
       <c r="G97" s="11">
-        <v>-642393</v>
+        <v>-632652</v>
       </c>
       <c r="H97" s="11">
-        <v>-632652</v>
+        <v>-913625</v>
       </c>
       <c r="I97" s="11">
-        <v>-913625</v>
+        <v>-892068</v>
       </c>
       <c r="J97" s="11">
-        <v>-892068</v>
-      </c>
-      <c r="K97" s="11">
         <v>-890240</v>
       </c>
+      <c r="K97" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L97" s="11" t="s">
         <v>18</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>22</v>
       </c>
@@ -3783,37 +3783,37 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>-18175</v>
+        <v>-12274</v>
       </c>
       <c r="F98" s="13">
-        <v>-12274</v>
+        <v>-18168</v>
       </c>
       <c r="G98" s="13">
-        <v>-18168</v>
+        <v>-12435</v>
       </c>
       <c r="H98" s="13">
-        <v>-12435</v>
+        <v>-31122</v>
       </c>
       <c r="I98" s="13">
-        <v>-31122</v>
+        <v>-11468</v>
       </c>
       <c r="J98" s="13">
-        <v>-11468</v>
+        <v>4656</v>
       </c>
       <c r="K98" s="13">
-        <v>4656</v>
+        <v>-15284</v>
       </c>
       <c r="L98" s="13">
-        <v>-15284</v>
+        <v>4172</v>
       </c>
       <c r="M98" s="13">
-        <v>4172</v>
+        <v>-31377</v>
       </c>
       <c r="N98" s="13">
-        <v>-31377</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8676</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>24</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>25</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>27</v>
       </c>
@@ -3900,37 +3900,37 @@
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
-        <v>-65274</v>
+        <v>-59665</v>
       </c>
       <c r="F101" s="11">
-        <v>-59665</v>
+        <v>-73112</v>
       </c>
       <c r="G101" s="11">
-        <v>-73112</v>
+        <v>-81552</v>
       </c>
       <c r="H101" s="11">
-        <v>-81552</v>
+        <v>-93035</v>
       </c>
       <c r="I101" s="11">
-        <v>-93035</v>
+        <v>-104325</v>
       </c>
       <c r="J101" s="11">
-        <v>-104325</v>
+        <v>-148660</v>
       </c>
       <c r="K101" s="11">
-        <v>-148660</v>
+        <v>-106329</v>
       </c>
       <c r="L101" s="11">
-        <v>-106329</v>
+        <v>-101930</v>
       </c>
       <c r="M101" s="11">
-        <v>-101930</v>
+        <v>-186544</v>
       </c>
       <c r="N101" s="11">
-        <v>-186544</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-184790</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>29</v>
       </c>
@@ -3956,57 +3956,57 @@
       <c r="J102" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K102" s="13" t="s">
-        <v>18</v>
+      <c r="K102" s="13">
+        <v>-911951</v>
       </c>
       <c r="L102" s="13">
-        <v>-911951</v>
+        <v>-1010370</v>
       </c>
       <c r="M102" s="13">
-        <v>-1010370</v>
+        <v>-1608052</v>
       </c>
       <c r="N102" s="13">
-        <v>-1608052</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1714943</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
-        <v>-644936</v>
+        <v>-686377</v>
       </c>
       <c r="F103" s="15">
-        <v>-686377</v>
+        <v>-773629</v>
       </c>
       <c r="G103" s="15">
-        <v>-773629</v>
+        <v>-768963</v>
       </c>
       <c r="H103" s="15">
-        <v>-768963</v>
+        <v>-1116522</v>
       </c>
       <c r="I103" s="15">
-        <v>-1116522</v>
+        <v>-1087528</v>
       </c>
       <c r="J103" s="15">
-        <v>-1087528</v>
+        <v>-1116495</v>
       </c>
       <c r="K103" s="15">
-        <v>-1116495</v>
+        <v>-1121121</v>
       </c>
       <c r="L103" s="15">
-        <v>-1121121</v>
+        <v>-1178486</v>
       </c>
       <c r="M103" s="15">
-        <v>-1178486</v>
+        <v>-1911026</v>
       </c>
       <c r="N103" s="15">
-        <v>-1911026</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1966368</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>59</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>16</v>
       </c>
@@ -4035,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="11">
-        <v>0</v>
+        <v>-1203</v>
       </c>
       <c r="G105" s="11">
-        <v>-1203</v>
+        <v>0</v>
       </c>
       <c r="H105" s="11">
         <v>0</v>
@@ -4049,8 +4049,8 @@
       <c r="J105" s="11">
         <v>0</v>
       </c>
-      <c r="K105" s="11">
-        <v>0</v>
+      <c r="K105" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L105" s="11" t="s">
         <v>18</v>
@@ -4062,7 +4062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>21</v>
       </c>
@@ -4071,26 +4071,26 @@
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
-        <v>-15222</v>
+        <v>1742</v>
       </c>
       <c r="F106" s="13">
-        <v>1742</v>
+        <v>-6606</v>
       </c>
       <c r="G106" s="13">
-        <v>-6606</v>
+        <v>-4892</v>
       </c>
       <c r="H106" s="13">
-        <v>-4892</v>
+        <v>-1245</v>
       </c>
       <c r="I106" s="13">
-        <v>-1245</v>
+        <v>-2853</v>
       </c>
       <c r="J106" s="13">
-        <v>-2853</v>
-      </c>
-      <c r="K106" s="13">
         <v>-63865</v>
       </c>
+      <c r="K106" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L106" s="13" t="s">
         <v>18</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>22</v>
       </c>
@@ -4115,11 +4115,11 @@
       <c r="F107" s="11">
         <v>0</v>
       </c>
-      <c r="G107" s="11">
-        <v>0</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>18</v>
+      <c r="G107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="11">
+        <v>0</v>
       </c>
       <c r="I107" s="11">
         <v>0</v>
@@ -4127,8 +4127,8 @@
       <c r="J107" s="11">
         <v>0</v>
       </c>
-      <c r="K107" s="11">
-        <v>0</v>
+      <c r="K107" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L107" s="11" t="s">
         <v>18</v>
@@ -4140,7 +4140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>24</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>25</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>27</v>
       </c>
@@ -4227,37 +4227,37 @@
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13">
-        <v>-1400</v>
+        <v>-543</v>
       </c>
       <c r="F110" s="13">
-        <v>-543</v>
+        <v>-333</v>
       </c>
       <c r="G110" s="13">
-        <v>-333</v>
+        <v>-4241</v>
       </c>
       <c r="H110" s="13">
-        <v>-4241</v>
+        <v>-980</v>
       </c>
       <c r="I110" s="13">
-        <v>-980</v>
+        <v>-321</v>
       </c>
       <c r="J110" s="13">
-        <v>-321</v>
+        <v>-2437</v>
       </c>
       <c r="K110" s="13">
-        <v>-2437</v>
+        <v>0</v>
       </c>
       <c r="L110" s="13">
-        <v>0</v>
+        <v>-7026</v>
       </c>
       <c r="M110" s="13">
-        <v>-7026</v>
+        <v>-6745</v>
       </c>
       <c r="N110" s="13">
-        <v>-6745</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-15344</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>29</v>
       </c>
@@ -4283,57 +4283,57 @@
       <c r="J111" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K111" s="11" t="s">
-        <v>18</v>
+      <c r="K111" s="11">
+        <v>-549</v>
       </c>
       <c r="L111" s="11">
-        <v>-549</v>
+        <v>-21745</v>
       </c>
       <c r="M111" s="11">
-        <v>-21745</v>
+        <v>-18074</v>
       </c>
       <c r="N111" s="11">
-        <v>-18074</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6482</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17">
-        <v>-16622</v>
+        <v>1199</v>
       </c>
       <c r="F112" s="17">
-        <v>1199</v>
+        <v>-8142</v>
       </c>
       <c r="G112" s="17">
-        <v>-8142</v>
+        <v>-9133</v>
       </c>
       <c r="H112" s="17">
-        <v>-9133</v>
+        <v>-2225</v>
       </c>
       <c r="I112" s="17">
-        <v>-2225</v>
+        <v>-3174</v>
       </c>
       <c r="J112" s="17">
-        <v>-3174</v>
+        <v>-66302</v>
       </c>
       <c r="K112" s="17">
-        <v>-66302</v>
+        <v>-549</v>
       </c>
       <c r="L112" s="17">
-        <v>-549</v>
+        <v>-28771</v>
       </c>
       <c r="M112" s="17">
-        <v>-28771</v>
+        <v>-24819</v>
       </c>
       <c r="N112" s="17">
-        <v>-24819</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-21826</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>61</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>19</v>
       </c>
@@ -4359,74 +4359,74 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>-9984</v>
+        <v>10299</v>
       </c>
       <c r="F114" s="11">
-        <v>10299</v>
-      </c>
-      <c r="G114" s="11">
         <v>-10236</v>
       </c>
-      <c r="H114" s="11" t="s">
-        <v>18</v>
+      <c r="G114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="11">
+        <v>-1357</v>
       </c>
       <c r="I114" s="11">
-        <v>-1357</v>
+        <v>-7296</v>
       </c>
       <c r="J114" s="11">
-        <v>-7296</v>
+        <v>-5131</v>
       </c>
       <c r="K114" s="11">
-        <v>-5131</v>
+        <v>0</v>
       </c>
       <c r="L114" s="11">
-        <v>0</v>
+        <v>-17540</v>
       </c>
       <c r="M114" s="11">
-        <v>-17540</v>
+        <v>17540</v>
       </c>
       <c r="N114" s="11">
-        <v>17540</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-33116</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
       <c r="E115" s="17">
-        <v>-9984</v>
+        <v>10299</v>
       </c>
       <c r="F115" s="17">
-        <v>10299</v>
+        <v>-10236</v>
       </c>
       <c r="G115" s="17">
-        <v>-10236</v>
+        <v>0</v>
       </c>
       <c r="H115" s="17">
-        <v>0</v>
+        <v>-1357</v>
       </c>
       <c r="I115" s="17">
-        <v>-1357</v>
+        <v>-7296</v>
       </c>
       <c r="J115" s="17">
-        <v>-7296</v>
+        <v>-5131</v>
       </c>
       <c r="K115" s="17">
-        <v>-5131</v>
+        <v>0</v>
       </c>
       <c r="L115" s="17">
-        <v>0</v>
+        <v>-17540</v>
       </c>
       <c r="M115" s="17">
-        <v>-17540</v>
+        <v>17540</v>
       </c>
       <c r="N115" s="17">
-        <v>17540</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-33116</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="14" t="s">
         <v>36</v>
       </c>
@@ -4440,8 +4440,8 @@
       <c r="F116" s="15">
         <v>0</v>
       </c>
-      <c r="G116" s="15">
-        <v>0</v>
+      <c r="G116" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>18</v>
@@ -4465,7 +4465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="16" t="s">
         <v>38</v>
       </c>
@@ -4479,17 +4479,17 @@
       <c r="F117" s="17">
         <v>0</v>
       </c>
-      <c r="G117" s="17">
-        <v>0</v>
-      </c>
-      <c r="H117" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I117" s="17">
-        <v>0</v>
-      </c>
-      <c r="J117" s="17" t="s">
-        <v>18</v>
+      <c r="G117" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="17">
+        <v>0</v>
+      </c>
+      <c r="I117" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J117" s="17">
+        <v>0</v>
       </c>
       <c r="K117" s="17">
         <v>0</v>
@@ -4504,44 +4504,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15">
-        <v>-671542</v>
+        <v>-674879</v>
       </c>
       <c r="F118" s="15">
-        <v>-674879</v>
+        <v>-792007</v>
       </c>
       <c r="G118" s="15">
-        <v>-792007</v>
+        <v>-778096</v>
       </c>
       <c r="H118" s="15">
-        <v>-778096</v>
+        <v>-1120104</v>
       </c>
       <c r="I118" s="15">
-        <v>-1120104</v>
+        <v>-1097998</v>
       </c>
       <c r="J118" s="15">
-        <v>-1097998</v>
+        <v>-1187928</v>
       </c>
       <c r="K118" s="15">
-        <v>-1187928</v>
+        <v>-1121670</v>
       </c>
       <c r="L118" s="15">
-        <v>-1121670</v>
+        <v>-1224797</v>
       </c>
       <c r="M118" s="15">
-        <v>-1224797</v>
+        <v>-1918305</v>
       </c>
       <c r="N118" s="15">
-        <v>-1918305</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2021310</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4556,7 +4556,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4571,7 +4571,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4586,7 +4586,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
         <v>63</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4638,7 +4638,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>64</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>16</v>
       </c>
@@ -4664,37 +4664,37 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>33129</v>
+        <v>44344</v>
       </c>
       <c r="F125" s="11">
-        <v>44344</v>
+        <v>10150</v>
       </c>
       <c r="G125" s="11">
-        <v>10150</v>
+        <v>27784</v>
       </c>
       <c r="H125" s="11">
-        <v>27784</v>
+        <v>57845</v>
       </c>
       <c r="I125" s="11">
-        <v>57845</v>
+        <v>65419</v>
       </c>
       <c r="J125" s="11">
-        <v>65419</v>
+        <v>76882</v>
       </c>
       <c r="K125" s="11">
-        <v>76882</v>
+        <v>48899</v>
       </c>
       <c r="L125" s="11">
-        <v>48899</v>
+        <v>155763</v>
       </c>
       <c r="M125" s="11">
-        <v>155763</v>
+        <v>108432</v>
       </c>
       <c r="N125" s="11">
-        <v>108432</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>19</v>
       </c>
@@ -4708,8 +4708,8 @@
       <c r="F126" s="13">
         <v>0</v>
       </c>
-      <c r="G126" s="13">
-        <v>0</v>
+      <c r="G126" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H126" s="13" t="s">
         <v>18</v>
@@ -4733,7 +4733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>21</v>
       </c>
@@ -4742,26 +4742,26 @@
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
-        <v>771496</v>
+        <v>987120</v>
       </c>
       <c r="F127" s="11">
-        <v>987120</v>
+        <v>783154</v>
       </c>
       <c r="G127" s="11">
-        <v>783154</v>
+        <v>716440</v>
       </c>
       <c r="H127" s="11">
-        <v>716440</v>
+        <v>518056</v>
       </c>
       <c r="I127" s="11">
-        <v>518056</v>
+        <v>890531</v>
       </c>
       <c r="J127" s="11">
-        <v>890531</v>
-      </c>
-      <c r="K127" s="11">
         <v>348303</v>
       </c>
+      <c r="K127" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L127" s="11" t="s">
         <v>18</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>22</v>
       </c>
@@ -4781,37 +4781,37 @@
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
-        <v>31716</v>
+        <v>20109</v>
       </c>
       <c r="F128" s="13">
-        <v>20109</v>
+        <v>-11623</v>
       </c>
       <c r="G128" s="13">
-        <v>-11623</v>
+        <v>11464</v>
       </c>
       <c r="H128" s="13">
-        <v>11464</v>
+        <v>81728</v>
       </c>
       <c r="I128" s="13">
-        <v>81728</v>
+        <v>-7598</v>
       </c>
       <c r="J128" s="13">
-        <v>-7598</v>
+        <v>-2913</v>
       </c>
       <c r="K128" s="13">
-        <v>-2913</v>
+        <v>6246</v>
       </c>
       <c r="L128" s="13">
-        <v>6246</v>
+        <v>4054</v>
       </c>
       <c r="M128" s="13">
-        <v>4054</v>
+        <v>-9287</v>
       </c>
       <c r="N128" s="13">
-        <v>-9287</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6495</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>24</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>25</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>27</v>
       </c>
@@ -4898,37 +4898,37 @@
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11">
-        <v>32977</v>
+        <v>50924</v>
       </c>
       <c r="F131" s="11">
-        <v>50924</v>
+        <v>55524</v>
       </c>
       <c r="G131" s="11">
-        <v>55524</v>
+        <v>97841</v>
       </c>
       <c r="H131" s="11">
-        <v>97841</v>
+        <v>28487</v>
       </c>
       <c r="I131" s="11">
-        <v>28487</v>
+        <v>25410</v>
       </c>
       <c r="J131" s="11">
-        <v>25410</v>
+        <v>54394</v>
       </c>
       <c r="K131" s="11">
-        <v>54394</v>
+        <v>20462</v>
       </c>
       <c r="L131" s="11">
-        <v>20462</v>
+        <v>102713</v>
       </c>
       <c r="M131" s="11">
-        <v>102713</v>
+        <v>70738</v>
       </c>
       <c r="N131" s="11">
-        <v>70738</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>59156</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="12" t="s">
         <v>29</v>
       </c>
@@ -4954,57 +4954,57 @@
       <c r="J132" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K132" s="13" t="s">
-        <v>18</v>
+      <c r="K132" s="13">
+        <v>673530</v>
       </c>
       <c r="L132" s="13">
-        <v>673530</v>
+        <v>1521496</v>
       </c>
       <c r="M132" s="13">
-        <v>1521496</v>
+        <v>1665667</v>
       </c>
       <c r="N132" s="13">
-        <v>1665667</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1547066</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15">
-        <v>869318</v>
+        <v>1102497</v>
       </c>
       <c r="F133" s="15">
-        <v>1102497</v>
+        <v>837205</v>
       </c>
       <c r="G133" s="15">
-        <v>837205</v>
+        <v>853529</v>
       </c>
       <c r="H133" s="15">
-        <v>853529</v>
+        <v>686116</v>
       </c>
       <c r="I133" s="15">
-        <v>686116</v>
+        <v>973762</v>
       </c>
       <c r="J133" s="15">
-        <v>973762</v>
+        <v>476666</v>
       </c>
       <c r="K133" s="15">
-        <v>476666</v>
+        <v>749137</v>
       </c>
       <c r="L133" s="15">
-        <v>749137</v>
+        <v>1784026</v>
       </c>
       <c r="M133" s="15">
-        <v>1784026</v>
+        <v>1835550</v>
       </c>
       <c r="N133" s="15">
-        <v>1835550</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1656879</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>66</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>16</v>
       </c>
@@ -5033,10 +5033,10 @@
         <v>0</v>
       </c>
       <c r="F135" s="11">
-        <v>0</v>
+        <v>2614</v>
       </c>
       <c r="G135" s="11">
-        <v>2614</v>
+        <v>0</v>
       </c>
       <c r="H135" s="11">
         <v>0</v>
@@ -5047,8 +5047,8 @@
       <c r="J135" s="11">
         <v>0</v>
       </c>
-      <c r="K135" s="11">
-        <v>0</v>
+      <c r="K135" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L135" s="11" t="s">
         <v>18</v>
@@ -5060,7 +5060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="12" t="s">
         <v>21</v>
       </c>
@@ -5069,26 +5069,26 @@
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13">
-        <v>33800</v>
+        <v>8105</v>
       </c>
       <c r="F136" s="13">
-        <v>8105</v>
+        <v>11403</v>
       </c>
       <c r="G136" s="13">
-        <v>11403</v>
+        <v>9651</v>
       </c>
       <c r="H136" s="13">
-        <v>9651</v>
+        <v>162</v>
       </c>
       <c r="I136" s="13">
-        <v>162</v>
+        <v>5734</v>
       </c>
       <c r="J136" s="13">
-        <v>5734</v>
-      </c>
-      <c r="K136" s="13">
         <v>32723</v>
       </c>
+      <c r="K136" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L136" s="13" t="s">
         <v>18</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>22</v>
       </c>
@@ -5113,11 +5113,11 @@
       <c r="F137" s="11">
         <v>0</v>
       </c>
-      <c r="G137" s="11">
-        <v>0</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>18</v>
+      <c r="G137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="11">
+        <v>0</v>
       </c>
       <c r="I137" s="11">
         <v>0</v>
@@ -5125,8 +5125,8 @@
       <c r="J137" s="11">
         <v>0</v>
       </c>
-      <c r="K137" s="11">
-        <v>0</v>
+      <c r="K137" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L137" s="11" t="s">
         <v>18</v>
@@ -5138,7 +5138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>24</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>25</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="12" t="s">
         <v>27</v>
       </c>
@@ -5225,37 +5225,37 @@
       </c>
       <c r="D140" s="13"/>
       <c r="E140" s="13">
-        <v>1293</v>
+        <v>-543</v>
       </c>
       <c r="F140" s="13">
-        <v>-543</v>
+        <v>-333</v>
       </c>
       <c r="G140" s="13">
-        <v>-333</v>
+        <v>1844</v>
       </c>
       <c r="H140" s="13">
-        <v>1844</v>
+        <v>-980</v>
       </c>
       <c r="I140" s="13">
-        <v>-980</v>
+        <v>1735</v>
       </c>
       <c r="J140" s="13">
-        <v>1735</v>
+        <v>248</v>
       </c>
       <c r="K140" s="13">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="L140" s="13">
-        <v>0</v>
+        <v>2223</v>
       </c>
       <c r="M140" s="13">
-        <v>2223</v>
+        <v>23351</v>
       </c>
       <c r="N140" s="13">
-        <v>23351</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-15344</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>29</v>
       </c>
@@ -5281,57 +5281,57 @@
       <c r="J141" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K141" s="11" t="s">
-        <v>18</v>
+      <c r="K141" s="11">
+        <v>701</v>
       </c>
       <c r="L141" s="11">
-        <v>701</v>
+        <v>34353</v>
       </c>
       <c r="M141" s="11">
-        <v>34353</v>
+        <v>8679</v>
       </c>
       <c r="N141" s="11">
-        <v>8679</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4506</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
       <c r="E142" s="17">
-        <v>35093</v>
+        <v>7562</v>
       </c>
       <c r="F142" s="17">
-        <v>7562</v>
+        <v>13684</v>
       </c>
       <c r="G142" s="17">
-        <v>13684</v>
+        <v>11495</v>
       </c>
       <c r="H142" s="17">
-        <v>11495</v>
+        <v>-818</v>
       </c>
       <c r="I142" s="17">
-        <v>-818</v>
+        <v>7469</v>
       </c>
       <c r="J142" s="17">
-        <v>7469</v>
+        <v>32971</v>
       </c>
       <c r="K142" s="17">
-        <v>32971</v>
+        <v>701</v>
       </c>
       <c r="L142" s="17">
-        <v>701</v>
+        <v>36576</v>
       </c>
       <c r="M142" s="17">
-        <v>36576</v>
+        <v>32030</v>
       </c>
       <c r="N142" s="17">
-        <v>32030</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-19850</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>68</v>
       </c>
@@ -5348,7 +5348,7 @@
       <c r="M143" s="9"/>
       <c r="N143" s="9"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>19</v>
       </c>
@@ -5357,108 +5357,108 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>-3723</v>
+        <v>3382</v>
       </c>
       <c r="F144" s="11">
-        <v>3382</v>
-      </c>
-      <c r="G144" s="11">
         <v>5663</v>
       </c>
-      <c r="H144" s="11" t="s">
-        <v>18</v>
+      <c r="G144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" s="11">
+        <v>349</v>
       </c>
       <c r="I144" s="11">
-        <v>349</v>
+        <v>1816</v>
       </c>
       <c r="J144" s="11">
-        <v>1816</v>
+        <v>4596</v>
       </c>
       <c r="K144" s="11">
-        <v>4596</v>
+        <v>0</v>
       </c>
       <c r="L144" s="11">
-        <v>0</v>
+        <v>-776</v>
       </c>
       <c r="M144" s="11">
-        <v>-776</v>
+        <v>776</v>
       </c>
       <c r="N144" s="11">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5684</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
       <c r="E145" s="17">
-        <v>-3723</v>
+        <v>3382</v>
       </c>
       <c r="F145" s="17">
-        <v>3382</v>
+        <v>5663</v>
       </c>
       <c r="G145" s="17">
-        <v>5663</v>
+        <v>0</v>
       </c>
       <c r="H145" s="17">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="I145" s="17">
-        <v>349</v>
+        <v>1816</v>
       </c>
       <c r="J145" s="17">
-        <v>1816</v>
+        <v>4596</v>
       </c>
       <c r="K145" s="17">
-        <v>4596</v>
+        <v>0</v>
       </c>
       <c r="L145" s="17">
-        <v>0</v>
+        <v>-776</v>
       </c>
       <c r="M145" s="17">
-        <v>-776</v>
+        <v>776</v>
       </c>
       <c r="N145" s="17">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5684</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="15">
-        <v>900688</v>
+        <v>1113441</v>
       </c>
       <c r="F146" s="15">
-        <v>1113441</v>
+        <v>856552</v>
       </c>
       <c r="G146" s="15">
-        <v>856552</v>
+        <v>865024</v>
       </c>
       <c r="H146" s="15">
-        <v>865024</v>
+        <v>685647</v>
       </c>
       <c r="I146" s="15">
-        <v>685647</v>
+        <v>983047</v>
       </c>
       <c r="J146" s="15">
-        <v>983047</v>
+        <v>514233</v>
       </c>
       <c r="K146" s="15">
-        <v>514233</v>
+        <v>749838</v>
       </c>
       <c r="L146" s="15">
-        <v>749838</v>
+        <v>1819826</v>
       </c>
       <c r="M146" s="15">
-        <v>1819826</v>
+        <v>1868356</v>
       </c>
       <c r="N146" s="15">
-        <v>1868356</v>
+        <v>1631345</v>
       </c>
     </row>
   </sheetData>
